--- a/heading_template.xlsx
+++ b/heading_template.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Company</t>
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Currency</t>
@@ -214,11 +217,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -234,20 +237,44 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,25 +288,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,35 +311,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,18 +349,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,7 +373,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +402,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,175 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,16 +597,51 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,26 +670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,167 +693,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,80 +1154,80 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BL1002"/>
+  <dimension ref="A1:BM1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4916666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="5.99166666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.0416666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.7416666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.91666666666667" customWidth="1"/>
-    <col min="6" max="6" width="19.1583333333333" customWidth="1"/>
-    <col min="7" max="7" width="24.8666666666667" customWidth="1"/>
-    <col min="8" max="8" width="30.3083333333333" customWidth="1"/>
-    <col min="9" max="9" width="32.9666666666667" customWidth="1"/>
-    <col min="10" max="10" width="12.45" customWidth="1"/>
-    <col min="11" max="11" width="9.29166666666667" customWidth="1"/>
-    <col min="12" max="12" width="10.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="16.8833333333333" customWidth="1"/>
-    <col min="14" max="14" width="19.5416666666667" customWidth="1"/>
-    <col min="15" max="15" width="12.5833333333333" customWidth="1"/>
-    <col min="16" max="16" width="19.0333333333333" customWidth="1"/>
-    <col min="17" max="17" width="9.15833333333333" customWidth="1"/>
-    <col min="18" max="18" width="10.8" customWidth="1"/>
-    <col min="19" max="19" width="9.29166666666667" customWidth="1"/>
-    <col min="20" max="20" width="14.8583333333333" customWidth="1"/>
-    <col min="21" max="21" width="26.3916666666667" customWidth="1"/>
-    <col min="22" max="22" width="5.86666666666667" customWidth="1"/>
-    <col min="23" max="23" width="9.79166666666667" customWidth="1"/>
-    <col min="24" max="24" width="29.6666666666667" customWidth="1"/>
-    <col min="25" max="25" width="48.9333333333333" customWidth="1"/>
-    <col min="26" max="26" width="31.5833333333333" customWidth="1"/>
-    <col min="27" max="27" width="28.4083333333333" customWidth="1"/>
-    <col min="28" max="28" width="24.6083333333333" customWidth="1"/>
-    <col min="29" max="29" width="10.9333333333333" customWidth="1"/>
-    <col min="30" max="30" width="19.4166666666667" customWidth="1"/>
-    <col min="31" max="31" width="19.8" customWidth="1"/>
-    <col min="32" max="32" width="13.4666666666667" customWidth="1"/>
-    <col min="33" max="33" width="31.0666666666667" customWidth="1"/>
-    <col min="34" max="34" width="13.2083333333333" customWidth="1"/>
-    <col min="35" max="35" width="16.5083333333333" customWidth="1"/>
-    <col min="36" max="36" width="33.7333333333333" customWidth="1"/>
-    <col min="37" max="37" width="37.0166666666667" customWidth="1"/>
-    <col min="38" max="38" width="24.2333333333333" customWidth="1"/>
-    <col min="39" max="39" width="20.05" customWidth="1"/>
-    <col min="40" max="40" width="16.6333333333333" customWidth="1"/>
-    <col min="41" max="41" width="13.2083333333333" customWidth="1"/>
-    <col min="42" max="42" width="30.0583333333333" customWidth="1"/>
-    <col min="43" max="43" width="19.8" customWidth="1"/>
-    <col min="44" max="44" width="20.8083333333333" customWidth="1"/>
-    <col min="45" max="45" width="14.8583333333333" customWidth="1"/>
-    <col min="46" max="46" width="17.2583333333333" customWidth="1"/>
-    <col min="47" max="47" width="19.4166666666667" customWidth="1"/>
-    <col min="48" max="48" width="30.0583333333333" customWidth="1"/>
-    <col min="49" max="49" width="22.3333333333333" customWidth="1"/>
-    <col min="50" max="50" width="42.85" customWidth="1"/>
-    <col min="51" max="51" width="20.5583333333333" customWidth="1"/>
-    <col min="52" max="52" width="31.2" customWidth="1"/>
-    <col min="53" max="53" width="25.5" customWidth="1"/>
-    <col min="54" max="54" width="50.3333333333333" customWidth="1"/>
-    <col min="55" max="55" width="25.6166666666667" customWidth="1"/>
-    <col min="56" max="56" width="46.0166666666667" customWidth="1"/>
-    <col min="57" max="57" width="25.3666666666667" customWidth="1"/>
-    <col min="58" max="58" width="25.75" customWidth="1"/>
-    <col min="59" max="59" width="19.5416666666667" customWidth="1"/>
-    <col min="60" max="60" width="49.0583333333333" customWidth="1"/>
-    <col min="61" max="61" width="48.0416666666667" customWidth="1"/>
-    <col min="62" max="62" width="52.7333333333333" customWidth="1"/>
-    <col min="63" max="63" width="60.3333333333333" customWidth="1"/>
-    <col min="64" max="64" width="53.4916666666667" customWidth="1"/>
+    <col min="2" max="3" width="5.99166666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.0416666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.7416666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.91666666666667" customWidth="1"/>
+    <col min="7" max="7" width="19.1583333333333" customWidth="1"/>
+    <col min="8" max="8" width="24.8666666666667" customWidth="1"/>
+    <col min="9" max="9" width="30.3083333333333" customWidth="1"/>
+    <col min="10" max="10" width="32.9666666666667" customWidth="1"/>
+    <col min="11" max="11" width="12.45" customWidth="1"/>
+    <col min="12" max="12" width="9.29166666666667" customWidth="1"/>
+    <col min="13" max="13" width="10.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="16.8833333333333" customWidth="1"/>
+    <col min="15" max="15" width="19.5416666666667" customWidth="1"/>
+    <col min="16" max="16" width="12.5833333333333" customWidth="1"/>
+    <col min="17" max="17" width="19.0333333333333" customWidth="1"/>
+    <col min="18" max="18" width="9.15833333333333" customWidth="1"/>
+    <col min="19" max="19" width="10.8" customWidth="1"/>
+    <col min="20" max="20" width="9.29166666666667" customWidth="1"/>
+    <col min="21" max="21" width="14.8583333333333" customWidth="1"/>
+    <col min="22" max="22" width="26.3916666666667" customWidth="1"/>
+    <col min="23" max="23" width="5.86666666666667" customWidth="1"/>
+    <col min="24" max="24" width="9.79166666666667" customWidth="1"/>
+    <col min="25" max="25" width="29.6666666666667" customWidth="1"/>
+    <col min="26" max="26" width="48.9333333333333" customWidth="1"/>
+    <col min="27" max="27" width="31.5833333333333" customWidth="1"/>
+    <col min="28" max="28" width="28.4083333333333" customWidth="1"/>
+    <col min="29" max="29" width="24.6083333333333" customWidth="1"/>
+    <col min="30" max="30" width="10.9333333333333" customWidth="1"/>
+    <col min="31" max="31" width="19.4166666666667" customWidth="1"/>
+    <col min="32" max="32" width="19.8" customWidth="1"/>
+    <col min="33" max="33" width="13.4666666666667" customWidth="1"/>
+    <col min="34" max="34" width="31.0666666666667" customWidth="1"/>
+    <col min="35" max="35" width="13.2083333333333" customWidth="1"/>
+    <col min="36" max="36" width="16.5083333333333" customWidth="1"/>
+    <col min="37" max="37" width="33.7333333333333" customWidth="1"/>
+    <col min="38" max="38" width="37.0166666666667" customWidth="1"/>
+    <col min="39" max="39" width="24.2333333333333" customWidth="1"/>
+    <col min="40" max="40" width="20.05" customWidth="1"/>
+    <col min="41" max="41" width="16.6333333333333" customWidth="1"/>
+    <col min="42" max="42" width="13.2083333333333" customWidth="1"/>
+    <col min="43" max="43" width="30.0583333333333" customWidth="1"/>
+    <col min="44" max="44" width="19.8" customWidth="1"/>
+    <col min="45" max="45" width="20.8083333333333" customWidth="1"/>
+    <col min="46" max="46" width="14.8583333333333" customWidth="1"/>
+    <col min="47" max="47" width="17.2583333333333" customWidth="1"/>
+    <col min="48" max="48" width="19.4166666666667" customWidth="1"/>
+    <col min="49" max="49" width="30.0583333333333" customWidth="1"/>
+    <col min="50" max="50" width="22.3333333333333" customWidth="1"/>
+    <col min="51" max="51" width="42.85" customWidth="1"/>
+    <col min="52" max="52" width="20.5583333333333" customWidth="1"/>
+    <col min="53" max="53" width="31.2" customWidth="1"/>
+    <col min="54" max="54" width="25.5" customWidth="1"/>
+    <col min="55" max="55" width="50.3333333333333" customWidth="1"/>
+    <col min="56" max="56" width="25.6166666666667" customWidth="1"/>
+    <col min="57" max="57" width="46.0166666666667" customWidth="1"/>
+    <col min="58" max="58" width="25.3666666666667" customWidth="1"/>
+    <col min="59" max="59" width="25.75" customWidth="1"/>
+    <col min="60" max="60" width="19.5416666666667" customWidth="1"/>
+    <col min="61" max="61" width="49.0583333333333" customWidth="1"/>
+    <col min="62" max="62" width="48.0416666666667" customWidth="1"/>
+    <col min="63" max="63" width="52.7333333333333" customWidth="1"/>
+    <col min="64" max="64" width="60.3333333333333" customWidth="1"/>
+    <col min="65" max="65" width="53.4916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:64">
+    <row r="1" ht="15" spans="1:65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,8 +1420,11 @@
       <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:64">
+    <row r="2" ht="15" spans="1:65">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1441,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -1450,10 +1456,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
@@ -1462,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
@@ -1474,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1">
         <v>1</v>
@@ -1489,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>1</v>
@@ -1504,14 +1510,14 @@
         <v>1</v>
       </c>
       <c r="AC2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
         <v>1</v>
       </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
       <c r="AF2" s="1">
         <v>0</v>
       </c>
@@ -1519,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="AH2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="1">
         <v>1</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" s="1">
         <v>0</v>
@@ -1555,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="1">
         <v>1</v>
@@ -1570,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="AY2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="1">
         <v>0</v>
@@ -1579,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="BB2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="1">
         <v>1</v>
       </c>
       <c r="BD2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="1">
         <v>0</v>
@@ -1594,13 +1600,13 @@
         <v>0</v>
       </c>
       <c r="BG2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="1">
         <v>1</v>
       </c>
       <c r="BI2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ2" s="1">
         <v>0</v>
@@ -1611,11 +1617,14 @@
       <c r="BL2" s="1">
         <v>0</v>
       </c>
+      <c r="BM2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" ht="15" spans="1:63">
+    <row r="4" ht="15" spans="1:64">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1626,9 +1635,9 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -1649,26 +1658,26 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AT4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AR4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
-      <c r="AZ4" s="1"/>
+      <c r="AY4" s="1"/>
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
-      <c r="BG4" s="1"/>
+      <c r="BF4" s="1"/>
       <c r="BH4" s="1"/>
-      <c r="BJ4" s="1"/>
+      <c r="BI4" s="1"/>
       <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
     </row>
-    <row r="5" ht="15" spans="29:59">
-      <c r="AC5" s="1"/>
+    <row r="5" ht="15" spans="30:60">
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -1679,23 +1688,23 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AT5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AR5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
-      <c r="AZ5" s="1"/>
+      <c r="AY5" s="1"/>
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
-      <c r="BG5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BH5" s="1"/>
     </row>
-    <row r="6" ht="15" spans="29:59">
-      <c r="AC6" s="1"/>
+    <row r="6" ht="15" spans="30:60">
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -1706,9 +1715,9 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AT6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AR6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
@@ -1720,12 +1729,13 @@
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
-      <c r="BG6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BH6" s="1"/>
     </row>
-    <row r="7" ht="15" spans="1:63">
+    <row r="7" ht="15" spans="1:64">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1736,9 +1746,9 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1759,26 +1769,26 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AT7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AR7" s="1"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
-      <c r="AZ7" s="1"/>
+      <c r="AY7" s="1"/>
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
-      <c r="BG7" s="1"/>
+      <c r="BF7" s="1"/>
       <c r="BH7" s="1"/>
-      <c r="BJ7" s="1"/>
+      <c r="BI7" s="1"/>
       <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
     </row>
-    <row r="8" ht="15" spans="29:59">
-      <c r="AC8" s="1"/>
+    <row r="8" ht="15" spans="30:60">
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
@@ -1789,23 +1799,23 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AT8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AR8" s="1"/>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
-      <c r="AZ8" s="1"/>
+      <c r="AY8" s="1"/>
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
-      <c r="BG8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BH8" s="1"/>
     </row>
-    <row r="9" ht="15" spans="29:59">
-      <c r="AC9" s="1"/>
+    <row r="9" ht="15" spans="30:60">
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
@@ -1816,25 +1826,26 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AT9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AR9" s="1"/>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
-      <c r="AZ9" s="1"/>
+      <c r="AY9" s="1"/>
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
-      <c r="BG9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BH9" s="1"/>
     </row>
-    <row r="10" ht="15" spans="1:63">
+    <row r="10" ht="15" spans="1:64">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1845,9 +1856,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1868,26 +1879,26 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AT10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AR10" s="1"/>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
-      <c r="AZ10" s="1"/>
+      <c r="AY10" s="1"/>
       <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
-      <c r="BG10" s="1"/>
+      <c r="BF10" s="1"/>
       <c r="BH10" s="1"/>
-      <c r="BJ10" s="1"/>
+      <c r="BI10" s="1"/>
       <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
     </row>
-    <row r="11" ht="15" spans="29:59">
-      <c r="AC11" s="1"/>
+    <row r="11" ht="15" spans="30:60">
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -1898,25 +1909,26 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AT11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AR11" s="1"/>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
-      <c r="AZ11" s="1"/>
+      <c r="AY11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
-      <c r="BG11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BH11" s="1"/>
     </row>
-    <row r="12" ht="15" spans="1:63">
+    <row r="12" ht="15" spans="1:64">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1927,8 +1939,8 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1953,26 +1965,26 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AT12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AR12" s="1"/>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
-      <c r="AZ12" s="1"/>
+      <c r="AY12" s="1"/>
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
-      <c r="BG12" s="1"/>
+      <c r="BF12" s="1"/>
       <c r="BH12" s="1"/>
-      <c r="BJ12" s="1"/>
+      <c r="BI12" s="1"/>
       <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
     </row>
-    <row r="13" ht="15" spans="29:59">
-      <c r="AC13" s="1"/>
+    <row r="13" ht="15" spans="30:60">
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -1983,25 +1995,26 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AT13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AR13" s="1"/>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
-      <c r="AZ13" s="1"/>
+      <c r="AY13" s="1"/>
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
-      <c r="BG13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BH13" s="1"/>
     </row>
-    <row r="14" ht="15" spans="1:63">
+    <row r="14" ht="15" spans="1:64">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2012,9 +2025,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -2035,26 +2048,26 @@
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AT14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AR14" s="1"/>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
-      <c r="AZ14" s="1"/>
+      <c r="AY14" s="1"/>
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
-      <c r="BG14" s="1"/>
+      <c r="BF14" s="1"/>
       <c r="BH14" s="1"/>
-      <c r="BJ14" s="1"/>
+      <c r="BI14" s="1"/>
       <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
     </row>
-    <row r="15" ht="15" spans="29:59">
-      <c r="AC15" s="1"/>
+    <row r="15" ht="15" spans="30:60">
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
@@ -2065,23 +2078,23 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AT15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AR15" s="1"/>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
-      <c r="AZ15" s="1"/>
+      <c r="AY15" s="1"/>
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
-      <c r="BG15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BH15" s="1"/>
     </row>
-    <row r="16" ht="15" spans="29:59">
-      <c r="AC16" s="1"/>
+    <row r="16" ht="15" spans="30:60">
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
@@ -2092,25 +2105,26 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AT16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AR16" s="1"/>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-      <c r="AZ16" s="1"/>
+      <c r="AY16" s="1"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
-      <c r="BG16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BH16" s="1"/>
     </row>
-    <row r="17" ht="15" spans="1:63">
+    <row r="17" ht="15" spans="1:64">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2121,9 +2135,9 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -2144,26 +2158,26 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AT17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AR17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
-      <c r="AZ17" s="1"/>
+      <c r="AY17" s="1"/>
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
-      <c r="BG17" s="1"/>
+      <c r="BF17" s="1"/>
       <c r="BH17" s="1"/>
-      <c r="BJ17" s="1"/>
+      <c r="BI17" s="1"/>
       <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
     </row>
-    <row r="18" ht="15" spans="29:59">
-      <c r="AC18" s="1"/>
+    <row r="18" ht="15" spans="30:60">
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -2174,20 +2188,21 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AT18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AR18" s="1"/>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
-      <c r="AZ18" s="1"/>
+      <c r="AY18" s="1"/>
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
-      <c r="BG18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BH18" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>

--- a/heading_template.xlsx
+++ b/heading_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9795" tabRatio="500"/>
+    <workbookView windowWidth="24000" windowHeight="9795" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Invoice" sheetId="1" r:id="rId1"/>
@@ -217,11 +217,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -237,9 +237,23 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,16 +264,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,23 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,20 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -342,14 +341,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -359,6 +350,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,14 +379,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +402,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,19 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,25 +498,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,121 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,28 +596,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,15 +625,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,50 +668,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,97 +737,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:BM1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4916666666667" defaultRowHeight="14.25"/>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>

--- a/heading_template.xlsx
+++ b/heading_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Company</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Against Income Account</t>
+  </si>
+  <si>
+    <t>Is Return (Credit Note)</t>
   </si>
   <si>
     <t>ID (Items)</t>
@@ -217,13 +220,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -237,23 +240,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF1F272E"/>
+      <name val="docs-Inter"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,8 +259,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -274,21 +283,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,9 +306,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,11 +335,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,18 +350,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,7 +374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,16 +388,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,19 +412,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,43 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,109 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,24 +603,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -629,6 +621,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -640,6 +641,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,21 +693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -696,145 +706,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BM1002"/>
+  <dimension ref="A1:BN1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4916666666667" defaultRowHeight="14.25"/>
@@ -1188,46 +1199,46 @@
     <col min="26" max="26" width="48.9333333333333" customWidth="1"/>
     <col min="27" max="27" width="31.5833333333333" customWidth="1"/>
     <col min="28" max="28" width="28.4083333333333" customWidth="1"/>
-    <col min="29" max="29" width="24.6083333333333" customWidth="1"/>
-    <col min="30" max="30" width="10.9333333333333" customWidth="1"/>
-    <col min="31" max="31" width="19.4166666666667" customWidth="1"/>
-    <col min="32" max="32" width="19.8" customWidth="1"/>
-    <col min="33" max="33" width="13.4666666666667" customWidth="1"/>
-    <col min="34" max="34" width="31.0666666666667" customWidth="1"/>
-    <col min="35" max="35" width="13.2083333333333" customWidth="1"/>
-    <col min="36" max="36" width="16.5083333333333" customWidth="1"/>
-    <col min="37" max="37" width="33.7333333333333" customWidth="1"/>
-    <col min="38" max="38" width="37.0166666666667" customWidth="1"/>
-    <col min="39" max="39" width="24.2333333333333" customWidth="1"/>
-    <col min="40" max="40" width="20.05" customWidth="1"/>
-    <col min="41" max="41" width="16.6333333333333" customWidth="1"/>
-    <col min="42" max="42" width="13.2083333333333" customWidth="1"/>
-    <col min="43" max="43" width="30.0583333333333" customWidth="1"/>
-    <col min="44" max="44" width="19.8" customWidth="1"/>
-    <col min="45" max="45" width="20.8083333333333" customWidth="1"/>
-    <col min="46" max="46" width="14.8583333333333" customWidth="1"/>
-    <col min="47" max="47" width="17.2583333333333" customWidth="1"/>
-    <col min="48" max="48" width="19.4166666666667" customWidth="1"/>
-    <col min="49" max="49" width="30.0583333333333" customWidth="1"/>
-    <col min="50" max="50" width="22.3333333333333" customWidth="1"/>
-    <col min="51" max="51" width="42.85" customWidth="1"/>
-    <col min="52" max="52" width="20.5583333333333" customWidth="1"/>
-    <col min="53" max="53" width="31.2" customWidth="1"/>
-    <col min="54" max="54" width="25.5" customWidth="1"/>
-    <col min="55" max="55" width="50.3333333333333" customWidth="1"/>
-    <col min="56" max="56" width="25.6166666666667" customWidth="1"/>
-    <col min="57" max="57" width="46.0166666666667" customWidth="1"/>
-    <col min="58" max="58" width="25.3666666666667" customWidth="1"/>
-    <col min="59" max="59" width="25.75" customWidth="1"/>
-    <col min="60" max="60" width="19.5416666666667" customWidth="1"/>
-    <col min="61" max="61" width="49.0583333333333" customWidth="1"/>
-    <col min="62" max="62" width="48.0416666666667" customWidth="1"/>
-    <col min="63" max="63" width="52.7333333333333" customWidth="1"/>
-    <col min="64" max="64" width="60.3333333333333" customWidth="1"/>
-    <col min="65" max="65" width="53.4916666666667" customWidth="1"/>
+    <col min="29" max="30" width="24.6083333333333" customWidth="1"/>
+    <col min="31" max="31" width="10.9333333333333" customWidth="1"/>
+    <col min="32" max="32" width="19.4166666666667" customWidth="1"/>
+    <col min="33" max="33" width="19.8" customWidth="1"/>
+    <col min="34" max="34" width="13.4666666666667" customWidth="1"/>
+    <col min="35" max="35" width="31.0666666666667" customWidth="1"/>
+    <col min="36" max="36" width="13.2083333333333" customWidth="1"/>
+    <col min="37" max="37" width="16.5083333333333" customWidth="1"/>
+    <col min="38" max="38" width="33.7333333333333" customWidth="1"/>
+    <col min="39" max="39" width="37.0166666666667" customWidth="1"/>
+    <col min="40" max="40" width="24.2333333333333" customWidth="1"/>
+    <col min="41" max="41" width="20.05" customWidth="1"/>
+    <col min="42" max="42" width="16.6333333333333" customWidth="1"/>
+    <col min="43" max="43" width="13.2083333333333" customWidth="1"/>
+    <col min="44" max="44" width="30.0583333333333" customWidth="1"/>
+    <col min="45" max="45" width="19.8" customWidth="1"/>
+    <col min="46" max="46" width="20.8083333333333" customWidth="1"/>
+    <col min="47" max="47" width="14.8583333333333" customWidth="1"/>
+    <col min="48" max="48" width="17.2583333333333" customWidth="1"/>
+    <col min="49" max="49" width="19.4166666666667" customWidth="1"/>
+    <col min="50" max="50" width="30.0583333333333" customWidth="1"/>
+    <col min="51" max="51" width="22.3333333333333" customWidth="1"/>
+    <col min="52" max="52" width="42.85" customWidth="1"/>
+    <col min="53" max="53" width="20.5583333333333" customWidth="1"/>
+    <col min="54" max="54" width="31.2" customWidth="1"/>
+    <col min="55" max="55" width="25.5" customWidth="1"/>
+    <col min="56" max="56" width="50.3333333333333" customWidth="1"/>
+    <col min="57" max="57" width="25.6166666666667" customWidth="1"/>
+    <col min="58" max="58" width="46.0166666666667" customWidth="1"/>
+    <col min="59" max="59" width="25.3666666666667" customWidth="1"/>
+    <col min="60" max="60" width="25.75" customWidth="1"/>
+    <col min="61" max="61" width="19.5416666666667" customWidth="1"/>
+    <col min="62" max="62" width="49.0583333333333" customWidth="1"/>
+    <col min="63" max="63" width="48.0416666666667" customWidth="1"/>
+    <col min="64" max="64" width="52.7333333333333" customWidth="1"/>
+    <col min="65" max="65" width="60.3333333333333" customWidth="1"/>
+    <col min="66" max="66" width="53.4916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:65">
+    <row r="1" ht="15" spans="1:66">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1326,7 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -1423,8 +1434,11 @@
       <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:65">
+    <row r="2" ht="15" spans="1:66">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1435,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -1459,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
@@ -1471,13 +1485,13 @@
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
@@ -1498,28 +1512,28 @@
         <v>1</v>
       </c>
       <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1">
         <v>0</v>
       </c>
-      <c r="Z2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>1</v>
-      </c>
       <c r="AF2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="1">
         <v>0</v>
@@ -1528,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>1</v>
       </c>
       <c r="AK2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -1564,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="AU2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="1">
         <v>1</v>
@@ -1579,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="1">
         <v>0</v>
@@ -1588,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="BC2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>1</v>
       </c>
       <c r="BE2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="1">
         <v>0</v>
@@ -1603,25 +1617,28 @@
         <v>0</v>
       </c>
       <c r="BH2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>1</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2" s="1">
         <v>0</v>
       </c>
       <c r="BL2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2" s="1">
         <v>0</v>
       </c>
+      <c r="BN2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" ht="15" spans="1:64">
+    <row r="4" ht="15" spans="1:65">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1659,26 +1676,26 @@
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AU4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AS4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
-      <c r="BA4" s="1"/>
+      <c r="AZ4" s="1"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
-      <c r="BH4" s="1"/>
+      <c r="BG4" s="1"/>
       <c r="BI4" s="1"/>
-      <c r="BK4" s="1"/>
+      <c r="BJ4" s="1"/>
       <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
     </row>
-    <row r="5" ht="15" spans="30:60">
-      <c r="AD5" s="1"/>
+    <row r="5" ht="15" spans="31:61">
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
@@ -1689,23 +1706,23 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AU5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AS5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
-      <c r="BA5" s="1"/>
+      <c r="AZ5" s="1"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
-      <c r="BH5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BI5" s="1"/>
     </row>
-    <row r="6" ht="15" spans="30:60">
-      <c r="AD6" s="1"/>
+    <row r="6" ht="15" spans="31:61">
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
@@ -1716,9 +1733,9 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AU6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AS6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
@@ -1730,9 +1747,10 @@
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
-      <c r="BH6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BI6" s="1"/>
     </row>
-    <row r="7" ht="15" spans="1:64">
+    <row r="7" ht="15" spans="1:65">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1770,26 +1788,26 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AU7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AS7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
-      <c r="BA7" s="1"/>
+      <c r="AZ7" s="1"/>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
-      <c r="BH7" s="1"/>
+      <c r="BG7" s="1"/>
       <c r="BI7" s="1"/>
-      <c r="BK7" s="1"/>
+      <c r="BJ7" s="1"/>
       <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
     </row>
-    <row r="8" ht="15" spans="30:60">
-      <c r="AD8" s="1"/>
+    <row r="8" ht="15" spans="31:61">
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
@@ -1800,23 +1818,23 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AU8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AS8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
-      <c r="BA8" s="1"/>
+      <c r="AZ8" s="1"/>
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
-      <c r="BH8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BI8" s="1"/>
     </row>
-    <row r="9" ht="15" spans="30:60">
-      <c r="AD9" s="1"/>
+    <row r="9" ht="15" spans="31:61">
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
@@ -1827,22 +1845,23 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AU9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AS9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
-      <c r="BA9" s="1"/>
+      <c r="AZ9" s="1"/>
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
-      <c r="BH9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BI9" s="1"/>
     </row>
-    <row r="10" ht="15" spans="1:64">
+    <row r="10" ht="15" spans="1:65">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1880,26 +1899,26 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AU10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AS10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
-      <c r="BA10" s="1"/>
+      <c r="AZ10" s="1"/>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
-      <c r="BH10" s="1"/>
+      <c r="BG10" s="1"/>
       <c r="BI10" s="1"/>
-      <c r="BK10" s="1"/>
+      <c r="BJ10" s="1"/>
       <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
     </row>
-    <row r="11" ht="15" spans="30:60">
-      <c r="AD11" s="1"/>
+    <row r="11" ht="15" spans="31:61">
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
@@ -1910,22 +1929,23 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AU11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AS11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
-      <c r="BA11" s="1"/>
+      <c r="AZ11" s="1"/>
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
-      <c r="BH11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BI11" s="1"/>
     </row>
-    <row r="12" ht="15" spans="1:64">
+    <row r="12" ht="15" spans="1:65">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1966,26 +1986,26 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AU12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AS12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
-      <c r="BA12" s="1"/>
+      <c r="AZ12" s="1"/>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
-      <c r="BH12" s="1"/>
+      <c r="BG12" s="1"/>
       <c r="BI12" s="1"/>
-      <c r="BK12" s="1"/>
+      <c r="BJ12" s="1"/>
       <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
     </row>
-    <row r="13" ht="15" spans="30:60">
-      <c r="AD13" s="1"/>
+    <row r="13" ht="15" spans="31:61">
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
@@ -1996,22 +2016,23 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AU13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AS13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
-      <c r="BA13" s="1"/>
+      <c r="AZ13" s="1"/>
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
-      <c r="BH13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BI13" s="1"/>
     </row>
-    <row r="14" ht="15" spans="1:64">
+    <row r="14" ht="15" spans="1:65">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2049,26 +2070,26 @@
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AU14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AS14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
-      <c r="BA14" s="1"/>
+      <c r="AZ14" s="1"/>
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
-      <c r="BH14" s="1"/>
+      <c r="BG14" s="1"/>
       <c r="BI14" s="1"/>
-      <c r="BK14" s="1"/>
+      <c r="BJ14" s="1"/>
       <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
     </row>
-    <row r="15" ht="15" spans="30:60">
-      <c r="AD15" s="1"/>
+    <row r="15" ht="15" spans="31:61">
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -2079,23 +2100,23 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AU15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AS15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
-      <c r="BA15" s="1"/>
+      <c r="AZ15" s="1"/>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
-      <c r="BH15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BI15" s="1"/>
     </row>
-    <row r="16" ht="15" spans="30:60">
-      <c r="AD16" s="1"/>
+    <row r="16" ht="15" spans="31:61">
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
@@ -2106,22 +2127,23 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AU16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AS16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
       <c r="AY16" s="1"/>
-      <c r="BA16" s="1"/>
+      <c r="AZ16" s="1"/>
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
-      <c r="BH16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BI16" s="1"/>
     </row>
-    <row r="17" ht="15" spans="1:64">
+    <row r="17" ht="15" spans="1:65">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2159,26 +2181,26 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AU17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AS17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
       <c r="AY17" s="1"/>
-      <c r="BA17" s="1"/>
+      <c r="AZ17" s="1"/>
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
-      <c r="BH17" s="1"/>
+      <c r="BG17" s="1"/>
       <c r="BI17" s="1"/>
-      <c r="BK17" s="1"/>
+      <c r="BJ17" s="1"/>
       <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
     </row>
-    <row r="18" ht="15" spans="30:60">
-      <c r="AD18" s="1"/>
+    <row r="18" ht="15" spans="31:61">
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
@@ -2189,20 +2211,21 @@
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AU18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AS18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
-      <c r="BA18" s="1"/>
+      <c r="AZ18" s="1"/>
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
-      <c r="BH18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BI18" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>

--- a/heading_template.xlsx
+++ b/heading_template.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\script-sales-invoices\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916E3BBD-5D65-4B50-8BB3-A793A05B0CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9795" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Invoice" sheetId="1" r:id="rId1"/>
@@ -23,210 +28,206 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>Price List</t>
+  </si>
+  <si>
+    <t>Price List Currency</t>
+  </si>
+  <si>
+    <t>Price List Exchange Rate</t>
+  </si>
+  <si>
+    <t>Net Total (Company Currency)</t>
+  </si>
+  <si>
+    <t>Grand Total (Company Currency)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Debit To</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Payment Due Date</t>
+  </si>
+  <si>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>Customer Address</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Territory</t>
+  </si>
+  <si>
+    <t>Total Quantity</t>
+  </si>
+  <si>
+    <t>Total (Company Currency)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Net Total</t>
+  </si>
+  <si>
+    <t>Apply Additional Discount On</t>
+  </si>
+  <si>
+    <t>Additional Discount Amount (Company Currency)</t>
+  </si>
+  <si>
+    <t>Additional Discount Percentage</t>
+  </si>
+  <si>
+    <t>Additional Discount Amount</t>
+  </si>
+  <si>
+    <t>Against Income Account</t>
+  </si>
+  <si>
+    <t>Is Return (Credit Note)</t>
+  </si>
+  <si>
+    <t>ID (Items)</t>
+  </si>
+  <si>
+    <t>Item Name (Items)</t>
+  </si>
+  <si>
+    <t>Description (Items)</t>
+  </si>
+  <si>
+    <t>UOM (Items)</t>
+  </si>
+  <si>
+    <t>UOM Conversion Factor (Items)</t>
+  </si>
+  <si>
+    <t>Rate (Items)</t>
+  </si>
+  <si>
+    <t>Amount (Items)</t>
+  </si>
+  <si>
+    <t>Rate (Company Currency) (Items)</t>
+  </si>
+  <si>
+    <t>Amount (Company Currency) (Items)</t>
+  </si>
+  <si>
+    <t>Income Account (Items)</t>
+  </si>
+  <si>
+    <t>Cost Center (Items)</t>
+  </si>
+  <si>
+    <t>Barcode (Items)</t>
+  </si>
+  <si>
+    <t>Item (Items)</t>
+  </si>
+  <si>
+    <t>Customer's Item Code (Items)</t>
+  </si>
+  <si>
+    <t>Item Group (Items)</t>
+  </si>
+  <si>
+    <t>Brand Name (Items)</t>
+  </si>
+  <si>
+    <t>Image (Items)</t>
+  </si>
+  <si>
+    <t>Quantity (Items)</t>
+  </si>
+  <si>
+    <t>Stock UOM (Items)</t>
+  </si>
+  <si>
+    <t>Qty as per Stock UOM (Items)</t>
+  </si>
+  <si>
+    <t>Price List Rate (Items)</t>
+  </si>
+  <si>
+    <t>Price List Rate (Company Currency) (Items)</t>
+  </si>
+  <si>
+    <t>Margin Type (Items)</t>
+  </si>
+  <si>
+    <t>Margin Rate or Amount (Items)</t>
+  </si>
+  <si>
+    <t>Rate With Margin (Items)</t>
+  </si>
+  <si>
+    <t>Discount (%) on Price List Rate with Margin (Items)</t>
+  </si>
+  <si>
+    <t>Discount Amount (Items)</t>
+  </si>
+  <si>
+    <t>Rate With Margin (Company Currency) (Items)</t>
+  </si>
+  <si>
+    <t>Expense Account (Items)</t>
+  </si>
+  <si>
+    <t>Discount Account (Items)</t>
+  </si>
+  <si>
+    <t>Warehouse (Items)</t>
+  </si>
+  <si>
+    <t>Sales Person (Sales Contributions and Incentives)</t>
+  </si>
+  <si>
+    <t>Contact No. (Sales Contributions and Incentives)</t>
+  </si>
+  <si>
+    <t>Contribution (%) (Sales Contributions and Incentives)</t>
+  </si>
+  <si>
+    <t>Contribution to Net Total (Sales Contributions and Incentives)</t>
+  </si>
+  <si>
+    <t>Commission Rate (Sales Contributions and Incentives)</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Exchange Rate</t>
-  </si>
-  <si>
-    <t>Price List</t>
-  </si>
-  <si>
-    <t>Price List Currency</t>
-  </si>
-  <si>
-    <t>Price List Exchange Rate</t>
-  </si>
-  <si>
-    <t>Net Total (Company Currency)</t>
-  </si>
-  <si>
-    <t>Grand Total (Company Currency)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Debit To</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Payment Due Date</t>
-  </si>
-  <si>
-    <t>Cost Center</t>
-  </si>
-  <si>
-    <t>Customer Address</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Mobile No</t>
-  </si>
-  <si>
-    <t>Territory</t>
-  </si>
-  <si>
-    <t>Total Quantity</t>
-  </si>
-  <si>
-    <t>Total (Company Currency)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Net Total</t>
-  </si>
-  <si>
-    <t>Apply Additional Discount On</t>
-  </si>
-  <si>
-    <t>Additional Discount Amount (Company Currency)</t>
-  </si>
-  <si>
-    <t>Additional Discount Percentage</t>
-  </si>
-  <si>
-    <t>Additional Discount Amount</t>
-  </si>
-  <si>
-    <t>Against Income Account</t>
-  </si>
-  <si>
-    <t>Is Return (Credit Note)</t>
-  </si>
-  <si>
-    <t>ID (Items)</t>
-  </si>
-  <si>
-    <t>Item Name (Items)</t>
-  </si>
-  <si>
-    <t>Description (Items)</t>
-  </si>
-  <si>
-    <t>UOM (Items)</t>
-  </si>
-  <si>
-    <t>UOM Conversion Factor (Items)</t>
-  </si>
-  <si>
-    <t>Rate (Items)</t>
-  </si>
-  <si>
-    <t>Amount (Items)</t>
-  </si>
-  <si>
-    <t>Rate (Company Currency) (Items)</t>
-  </si>
-  <si>
-    <t>Amount (Company Currency) (Items)</t>
-  </si>
-  <si>
-    <t>Income Account (Items)</t>
-  </si>
-  <si>
-    <t>Cost Center (Items)</t>
-  </si>
-  <si>
-    <t>Barcode (Items)</t>
-  </si>
-  <si>
-    <t>Item (Items)</t>
-  </si>
-  <si>
-    <t>Customer's Item Code (Items)</t>
-  </si>
-  <si>
-    <t>Item Group (Items)</t>
-  </si>
-  <si>
-    <t>Brand Name (Items)</t>
-  </si>
-  <si>
-    <t>Image (Items)</t>
-  </si>
-  <si>
-    <t>Quantity (Items)</t>
-  </si>
-  <si>
-    <t>Stock UOM (Items)</t>
-  </si>
-  <si>
-    <t>Qty as per Stock UOM (Items)</t>
-  </si>
-  <si>
-    <t>Price List Rate (Items)</t>
-  </si>
-  <si>
-    <t>Price List Rate (Company Currency) (Items)</t>
-  </si>
-  <si>
-    <t>Margin Type (Items)</t>
-  </si>
-  <si>
-    <t>Margin Rate or Amount (Items)</t>
-  </si>
-  <si>
-    <t>Rate With Margin (Items)</t>
-  </si>
-  <si>
-    <t>Discount (%) on Price List Rate with Margin (Items)</t>
-  </si>
-  <si>
-    <t>Discount Amount (Items)</t>
-  </si>
-  <si>
-    <t>Rate With Margin (Company Currency) (Items)</t>
-  </si>
-  <si>
-    <t>Expense Account (Items)</t>
-  </si>
-  <si>
-    <t>Discount Account (Items)</t>
-  </si>
-  <si>
-    <t>Warehouse (Items)</t>
-  </si>
-  <si>
-    <t>Sales Person (Sales Contributions and Incentives)</t>
-  </si>
-  <si>
-    <t>Contact No. (Sales Contributions and Incentives)</t>
-  </si>
-  <si>
-    <t>Contribution (%) (Sales Contributions and Incentives)</t>
-  </si>
-  <si>
-    <t>Contribution to Net Total (Sales Contributions and Incentives)</t>
-  </si>
-  <si>
-    <t>Commission Rate (Sales Contributions and Incentives)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -246,358 +247,16 @@
       <name val="docs-Inter"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -605,303 +264,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1159,86 +542,86 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4916666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="5.99166666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.0416666666667" customWidth="1"/>
-    <col min="5" max="5" width="15.7416666666667" customWidth="1"/>
-    <col min="6" max="6" width="9.91666666666667" customWidth="1"/>
-    <col min="7" max="7" width="19.1583333333333" customWidth="1"/>
-    <col min="8" max="8" width="24.8666666666667" customWidth="1"/>
-    <col min="9" max="9" width="30.3083333333333" customWidth="1"/>
-    <col min="10" max="10" width="32.9666666666667" customWidth="1"/>
-    <col min="11" max="11" width="12.45" customWidth="1"/>
-    <col min="12" max="12" width="9.29166666666667" customWidth="1"/>
-    <col min="13" max="13" width="10.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="16.8833333333333" customWidth="1"/>
-    <col min="15" max="15" width="19.5416666666667" customWidth="1"/>
-    <col min="16" max="16" width="12.5833333333333" customWidth="1"/>
-    <col min="17" max="17" width="19.0333333333333" customWidth="1"/>
-    <col min="18" max="18" width="9.15833333333333" customWidth="1"/>
-    <col min="19" max="19" width="10.8" customWidth="1"/>
-    <col min="20" max="20" width="9.29166666666667" customWidth="1"/>
-    <col min="21" max="21" width="14.8583333333333" customWidth="1"/>
-    <col min="22" max="22" width="26.3916666666667" customWidth="1"/>
-    <col min="23" max="23" width="5.86666666666667" customWidth="1"/>
-    <col min="24" max="24" width="9.79166666666667" customWidth="1"/>
-    <col min="25" max="25" width="29.6666666666667" customWidth="1"/>
-    <col min="26" max="26" width="48.9333333333333" customWidth="1"/>
-    <col min="27" max="27" width="31.5833333333333" customWidth="1"/>
-    <col min="28" max="28" width="28.4083333333333" customWidth="1"/>
-    <col min="29" max="30" width="24.6083333333333" customWidth="1"/>
-    <col min="31" max="31" width="10.9333333333333" customWidth="1"/>
-    <col min="32" max="32" width="19.4166666666667" customWidth="1"/>
-    <col min="33" max="33" width="19.8" customWidth="1"/>
-    <col min="34" max="34" width="13.4666666666667" customWidth="1"/>
-    <col min="35" max="35" width="31.0666666666667" customWidth="1"/>
-    <col min="36" max="36" width="13.2083333333333" customWidth="1"/>
-    <col min="37" max="37" width="16.5083333333333" customWidth="1"/>
-    <col min="38" max="38" width="33.7333333333333" customWidth="1"/>
-    <col min="39" max="39" width="37.0166666666667" customWidth="1"/>
-    <col min="40" max="40" width="24.2333333333333" customWidth="1"/>
-    <col min="41" max="41" width="20.05" customWidth="1"/>
-    <col min="42" max="42" width="16.6333333333333" customWidth="1"/>
-    <col min="43" max="43" width="13.2083333333333" customWidth="1"/>
-    <col min="44" max="44" width="30.0583333333333" customWidth="1"/>
-    <col min="45" max="45" width="19.8" customWidth="1"/>
-    <col min="46" max="46" width="20.8083333333333" customWidth="1"/>
-    <col min="47" max="47" width="14.8583333333333" customWidth="1"/>
-    <col min="48" max="48" width="17.2583333333333" customWidth="1"/>
-    <col min="49" max="49" width="19.4166666666667" customWidth="1"/>
-    <col min="50" max="50" width="30.0583333333333" customWidth="1"/>
-    <col min="51" max="51" width="22.3333333333333" customWidth="1"/>
-    <col min="52" max="52" width="42.85" customWidth="1"/>
-    <col min="53" max="53" width="20.5583333333333" customWidth="1"/>
-    <col min="54" max="54" width="31.2" customWidth="1"/>
+    <col min="2" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
+    <col min="9" max="9" width="30.25" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="18" width="9.125" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="9.25" customWidth="1"/>
+    <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="22" max="22" width="26.375" customWidth="1"/>
+    <col min="23" max="23" width="5.875" customWidth="1"/>
+    <col min="24" max="24" width="9.75" customWidth="1"/>
+    <col min="25" max="25" width="29.625" customWidth="1"/>
+    <col min="26" max="26" width="48.875" customWidth="1"/>
+    <col min="27" max="27" width="31.625" customWidth="1"/>
+    <col min="28" max="28" width="28.375" customWidth="1"/>
+    <col min="29" max="30" width="24.625" customWidth="1"/>
+    <col min="31" max="31" width="10.875" customWidth="1"/>
+    <col min="32" max="32" width="19.375" customWidth="1"/>
+    <col min="33" max="33" width="19.75" customWidth="1"/>
+    <col min="34" max="34" width="13.5" customWidth="1"/>
+    <col min="35" max="35" width="31.125" customWidth="1"/>
+    <col min="36" max="36" width="13.25" customWidth="1"/>
+    <col min="37" max="37" width="16.5" customWidth="1"/>
+    <col min="38" max="38" width="33.75" customWidth="1"/>
+    <col min="39" max="39" width="37" customWidth="1"/>
+    <col min="40" max="40" width="24.25" customWidth="1"/>
+    <col min="41" max="41" width="20" customWidth="1"/>
+    <col min="42" max="42" width="16.625" customWidth="1"/>
+    <col min="43" max="43" width="13.25" customWidth="1"/>
+    <col min="44" max="44" width="30" customWidth="1"/>
+    <col min="45" max="45" width="19.75" customWidth="1"/>
+    <col min="46" max="46" width="20.75" customWidth="1"/>
+    <col min="47" max="47" width="14.875" customWidth="1"/>
+    <col min="48" max="48" width="17.25" customWidth="1"/>
+    <col min="49" max="49" width="19.375" customWidth="1"/>
+    <col min="50" max="50" width="30" customWidth="1"/>
+    <col min="51" max="51" width="22.375" customWidth="1"/>
+    <col min="52" max="52" width="42.875" customWidth="1"/>
+    <col min="53" max="53" width="20.5" customWidth="1"/>
+    <col min="54" max="54" width="31.25" customWidth="1"/>
     <col min="55" max="55" width="25.5" customWidth="1"/>
-    <col min="56" max="56" width="50.3333333333333" customWidth="1"/>
-    <col min="57" max="57" width="25.6166666666667" customWidth="1"/>
-    <col min="58" max="58" width="46.0166666666667" customWidth="1"/>
-    <col min="59" max="59" width="25.3666666666667" customWidth="1"/>
+    <col min="56" max="56" width="50.375" customWidth="1"/>
+    <col min="57" max="57" width="25.625" customWidth="1"/>
+    <col min="58" max="58" width="46" customWidth="1"/>
+    <col min="59" max="59" width="25.375" customWidth="1"/>
     <col min="60" max="60" width="25.75" customWidth="1"/>
-    <col min="61" max="61" width="19.5416666666667" customWidth="1"/>
-    <col min="62" max="62" width="49.0583333333333" customWidth="1"/>
-    <col min="63" max="63" width="48.0416666666667" customWidth="1"/>
-    <col min="64" max="64" width="52.7333333333333" customWidth="1"/>
-    <col min="65" max="65" width="60.3333333333333" customWidth="1"/>
-    <col min="66" max="66" width="53.4916666666667" customWidth="1"/>
+    <col min="61" max="61" width="19.5" customWidth="1"/>
+    <col min="62" max="62" width="49" customWidth="1"/>
+    <col min="63" max="63" width="48" customWidth="1"/>
+    <col min="64" max="64" width="52.75" customWidth="1"/>
+    <col min="65" max="65" width="60.375" customWidth="1"/>
+    <col min="66" max="66" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:66">
+    <row r="1" spans="1:66" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,199 +629,199 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="2" ht="15" spans="1:66">
+    <row r="2" spans="1:66" ht="15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1446,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1494,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1">
         <v>1</v>
@@ -1638,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:65">
+    <row r="4" spans="1:66" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1695,7 +1078,7 @@
       <c r="BL4" s="1"/>
       <c r="BM4" s="1"/>
     </row>
-    <row r="5" ht="15" spans="31:61">
+    <row r="5" spans="1:66" ht="15">
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
@@ -1722,7 +1105,7 @@
       <c r="BG5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" ht="15" spans="31:61">
+    <row r="6" spans="1:66" ht="15">
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
@@ -1750,7 +1133,7 @@
       <c r="BG6" s="1"/>
       <c r="BI6" s="1"/>
     </row>
-    <row r="7" ht="15" spans="1:65">
+    <row r="7" spans="1:66" ht="15">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1807,7 +1190,7 @@
       <c r="BL7" s="1"/>
       <c r="BM7" s="1"/>
     </row>
-    <row r="8" ht="15" spans="31:61">
+    <row r="8" spans="1:66" ht="15">
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
@@ -1834,7 +1217,7 @@
       <c r="BG8" s="1"/>
       <c r="BI8" s="1"/>
     </row>
-    <row r="9" ht="15" spans="31:61">
+    <row r="9" spans="1:66" ht="15">
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
@@ -1861,7 +1244,7 @@
       <c r="BG9" s="1"/>
       <c r="BI9" s="1"/>
     </row>
-    <row r="10" ht="15" spans="1:65">
+    <row r="10" spans="1:66" ht="15">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1918,7 +1301,7 @@
       <c r="BL10" s="1"/>
       <c r="BM10" s="1"/>
     </row>
-    <row r="11" ht="15" spans="31:61">
+    <row r="11" spans="1:66" ht="15">
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
@@ -1945,7 +1328,7 @@
       <c r="BG11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" ht="15" spans="1:65">
+    <row r="12" spans="1:66" ht="15">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2005,7 +1388,7 @@
       <c r="BL12" s="1"/>
       <c r="BM12" s="1"/>
     </row>
-    <row r="13" ht="15" spans="31:61">
+    <row r="13" spans="1:66" ht="15">
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
@@ -2032,7 +1415,7 @@
       <c r="BG13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" ht="15" spans="1:65">
+    <row r="14" spans="1:66" ht="15">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2089,7 +1472,7 @@
       <c r="BL14" s="1"/>
       <c r="BM14" s="1"/>
     </row>
-    <row r="15" ht="15" spans="31:61">
+    <row r="15" spans="1:66" ht="15">
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -2116,7 +1499,7 @@
       <c r="BG15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" ht="15" spans="31:61">
+    <row r="16" spans="1:66" ht="15">
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
@@ -2143,7 +1526,7 @@
       <c r="BG16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" ht="15" spans="1:65">
+    <row r="17" spans="1:65" ht="15">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2200,7 +1583,7 @@
       <c r="BL17" s="1"/>
       <c r="BM17" s="1"/>
     </row>
-    <row r="18" ht="15" spans="31:61">
+    <row r="18" spans="1:65" ht="15">
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
@@ -2227,16 +1610,16 @@
       <c r="BG18" s="1"/>
       <c r="BI18" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:65" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:65" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:65" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:65" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:65" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:65" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:65" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:65" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:65" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:65" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3208,8 +2591,7 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>